--- a/Excel/Práctica/13. Tablas Dinámicas en Excel/Introducción a tablas dinámicas.xlsx
+++ b/Excel/Práctica/13. Tablas Dinámicas en Excel/Introducción a tablas dinámicas.xlsx
@@ -25,7 +25,7 @@
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId7"/>
+    <pivotCache cacheId="10" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="80">
   <si>
     <t>Etiquetas de fila</t>
   </si>
@@ -275,9 +275,6 @@
     </r>
   </si>
   <si>
-    <t>En esta ocasión no se tuvo en cuenta ningún filtro.</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Sin embargo, todo depende de lo que usted y las partes interesadas decidan evaluar de sus datos: qué </t>
     </r>
@@ -325,195 +322,6 @@
   </si>
   <si>
     <t>El orden de los datos será reflejado, dentro de la tabla dinamica, en el mismo orden en el que sean llamado; ya sea como filtro, como fila, como columna o como valores.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desde acá se puede personalizar nuestra tabla dinamica (en Opciones)… </t>
-  </si>
-  <si>
-    <r>
-      <t>Ahora, si queremos re-configurar una tabla dinamica ya existente (redefinir sus filas, columnas… )</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>hacemos click sobre la tabla en cuestión y nos vamos</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>la pestaña</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Analizar tabla dinámica, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">luego click en la opción </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Lista de campo.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Ahora, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>usted también puede configurar  y personalizar el formato de cada campo</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Cuerpo)"/>
-      </rPr>
-      <t xml:space="preserve"> evaluado dentro de su tabla dinamica </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Cuerpo)"/>
-      </rPr>
-      <t xml:space="preserve">(asignarle al campo un nuevo formato de celdas, por ejemplo). Haga click sobre la tabla dinamica en cuestión, se va a la pestaña </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Cuerpo)"/>
-      </rPr>
-      <t xml:space="preserve">Analizar tabla dinámica </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Cuerpo)"/>
-      </rPr>
-      <t xml:space="preserve">de nuevo y presiona la opción </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Cuerpo)"/>
-      </rPr>
-      <t xml:space="preserve">Configuración de campo. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Cuerpo)"/>
-      </rPr>
-      <t xml:space="preserve">Ahora, un dato, además de poder cambiar el formato de sus campos, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Cuerpo)"/>
-      </rPr>
-      <t xml:space="preserve">puede también cambiar el nombre del campo en cuestión. </t>
-    </r>
   </si>
   <si>
     <t>ahí se cambia el formato de celda de un campo numérico, por ejemplo.</t>
@@ -609,6 +417,9 @@
     <t>% de Ventas</t>
   </si>
   <si>
+    <t>(Todo)</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Ahora, ahí mismo </t>
     </r>
@@ -631,7 +442,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Por lo general, esta herramienta se usa cuando se pretende agregar una nueva instancia (una nueva columna con la información de sus celdas) del mismo campo y analizar de forma multidimensional los datos de dicho campo; </t>
+      <t xml:space="preserve">Por lo general, esta herramienta se usa cuando se pretende agregar una nueva instancia (una nueva columna con la misma información de los datos anteriores, pero presentandos bajo una función diferente) del mismo campo y analizar de forma multidimensional los datos de dicho campo; </t>
     </r>
     <r>
       <rPr>
@@ -666,7 +477,651 @@
     </r>
   </si>
   <si>
-    <t>(Todo)</t>
+    <r>
+      <t>En principio no se tuvo en cuenta ningún filtro, sin embargo más adelante pasaremos como filtro el campo de</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Tienda.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Desde acá se puede personalizar nuestra tabla dinamica (en Opciones)… </t>
+  </si>
+  <si>
+    <r>
+      <t>2. Ahora, si queremos re-configurar una tabla dinamica ya existente (redefinir sus filas, columnas… )</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Cuerpo)"/>
+      </rPr>
+      <t>hacemos click sobre la tabla en cuestión y nos vamos</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Cuerpo)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Cuerpo)"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Cuerpo)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Cuerpo)"/>
+      </rPr>
+      <t>la pestaña</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Cuerpo)"/>
+      </rPr>
+      <t xml:space="preserve"> Analizar tabla dinámica, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Cuerpo)"/>
+      </rPr>
+      <t>luego click en la opción</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lista de campo.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Luego se abrirá una nueva ventana en la cual nos interesa analizar, puntualmente, el siguiente fragmento: </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">En </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nombre</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">le pasamos el nombre que será asignado a nuestro nuevo campo calculado y en </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">fórmula </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>se pasa</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">la formula numérica correspondiente a la función de dicho campo, la cual pretende interactuar con los demás valores numéricos de las demás columnas; en este caso, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>la condición será otorgar un bono del 10% para todo aquel vendedor que supere una cifra en ventas de $1500; de lo contrario, no se otorga bono.</t>
+    </r>
+  </si>
+  <si>
+    <t>Queda así:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Un dato:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> la formula matematica que pasemos, incluyendo los campos de referencia incluidos (que se pasan con </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Insertar Campo, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>si los seleccionamos y</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>si queremos operar con ellos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>), deben pasarse manualmente; por lo que, debe saber con exactitud la sintaxis de la formula que pretende incorporar para evitar todo tipo de errores (especialmente errores de tipo "#NULO!" o de sintaxis).</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Ahora,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> luego de incorporado el nuevo campo calculado o columna, al hacer click en </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Aceptar</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">... </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Para que se refleje ese nuevo campo, propiamente en la tabla dinamica, debemos seleccionarlo con la opción </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lista de campo.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4. Ahora, con tablas dinamicas, también podemos agregar (como modificar) una nueva columna o atributo (de tipo numérico) sin necesidad de que ésta exista o se encuentre en la tabla principal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; por ejemplo, en este caso, vamos a incorporar una nueva columna que evalue la correspondencia en bonos, de cada vendedor, según su rendimiento de ventas. A mayor rendimiento, mayor bonificación. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cómo lo hacemos? Siga las instrucciones a continuación.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Primero hacemos click sobre la tabla dinamica en cuestión y nos vamos a la pestaña </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Analizar tabla dinámica</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, luego click en la opción </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Campos, elementos y conjuntos</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; estando allí, nos vamos a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Campos calculados. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tal que así:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tenga claro que, si lo desea, puede modificar la formula establecida para el campo calculado </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Bono </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cada vez que quiera.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Ahora, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>usted también puede configurar  y personalizar el formato de cada campo</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Cuerpo)"/>
+      </rPr>
+      <t xml:space="preserve"> evaluado dentro de su tabla dinamica </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Cuerpo)"/>
+      </rPr>
+      <t xml:space="preserve">(asignarle al campo un nuevo formato de celdas, por ejemplo). Haga click sobre el </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Cuerpo)"/>
+      </rPr>
+      <t>campo de interés</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Cuerpo)"/>
+      </rPr>
+      <t xml:space="preserve"> en cuestión, se va a la pestaña </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Cuerpo)"/>
+      </rPr>
+      <t xml:space="preserve">Analizar tabla dinámica </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Cuerpo)"/>
+      </rPr>
+      <t xml:space="preserve">de nuevo y presiona la opción </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Cuerpo)"/>
+      </rPr>
+      <t xml:space="preserve">Configuración de campo. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Cuerpo)"/>
+      </rPr>
+      <t xml:space="preserve">Ahora, un dato, además de poder cambiar el formato de sus campos, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Cuerpo)"/>
+      </rPr>
+      <t xml:space="preserve">puede también cambiar el nombre del campo en cuestión. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">El nombre del campo calculado </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Bono </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">fue modificado a: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bono (10%)</t>
+    </r>
+  </si>
+  <si>
+    <t>Bono (10%)</t>
   </si>
 </sst>
 </file>
@@ -676,9 +1131,9 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="dd\ mmm"/>
-    <numFmt numFmtId="167" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -778,6 +1233,19 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri (Cuerpo)"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri (Cuerpo)"/>
     </font>
   </fonts>
   <fills count="5">
@@ -948,7 +1416,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -995,21 +1463,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Énfasis1" xfId="2" builtinId="29"/>
@@ -1019,84 +1497,21 @@
     <cellStyle name="Normal 2" xfId="4"/>
     <cellStyle name="Normal 3" xfId="5"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="11">
     <dxf>
-      <numFmt numFmtId="167" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
@@ -1105,28 +1520,10 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-&quot;$&quot;* #,##0.0_-;\-&quot;$&quot;* #,##0.0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-&quot;$&quot;* #,##0.0_-;\-&quot;$&quot;* #,##0.0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="32" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="32" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
@@ -1200,13 +1597,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>939800</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>3331</xdr:rowOff>
@@ -1244,13 +1641,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>3735</xdr:rowOff>
@@ -1288,13 +1685,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>825500</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
@@ -1335,13 +1732,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>1346200</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>77694</xdr:rowOff>
@@ -1379,13 +1776,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
@@ -1426,15 +1823,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>215900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>59871</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1460,6 +1857,138 @@
         <a:xfrm>
           <a:off x="14401800" y="12280900"/>
           <a:ext cx="2819400" cy="326571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>183504</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7213600" y="14960600"/>
+          <a:ext cx="8775700" cy="1631304"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1384300</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>9199</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagen 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7213600" y="17373600"/>
+          <a:ext cx="4394200" cy="1698299"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1397000</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>31241</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Imagen 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7213600" y="19545300"/>
+          <a:ext cx="4406900" cy="1720341"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1664,7 +2193,7 @@
         </groupItems>
       </fieldGroup>
     </cacheField>
-    <cacheField name="Bono" numFmtId="0" formula="IF('Importe Venta'&gt;1500,'Importe Venta'*10%,0)" databaseField="0"/>
+    <cacheField name="Bono" numFmtId="0" formula="IF('Importe Venta' &gt;1500,'Importe Venta'*10%,0)" databaseField="0"/>
     <cacheField name="Trimestres" numFmtId="0" databaseField="0">
       <fieldGroup base="4">
         <rangePr groupBy="quarters" startDate="2020-01-03T00:00:00" endDate="2020-12-30T00:00:00"/>
@@ -3037,7 +3566,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica4" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica4" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C32" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
@@ -3226,7 +3755,7 @@
     <dataField name="Suma de Bono" fld="5" baseField="0" baseItem="0" numFmtId="44"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="36">
+    <format dxfId="9">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -3243,7 +3772,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D255" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
@@ -4117,8 +4646,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica4" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:D31" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica4" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:E31" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField axis="axisPage" showAll="0">
       <items count="5">
@@ -4230,7 +4759,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
@@ -4325,7 +4854,7 @@
   <colFields count="1">
     <field x="-2"/>
   </colFields>
-  <colItems count="3">
+  <colItems count="4">
     <i>
       <x/>
     </i>
@@ -4334,21 +4863,25 @@
     </i>
     <i i="2">
       <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
     </i>
   </colItems>
   <pageFields count="1">
     <pageField fld="0" hier="-1"/>
   </pageFields>
-  <dataFields count="3">
+  <dataFields count="4">
     <dataField name="Ventas totales" fld="2" baseField="0" baseItem="0"/>
     <dataField name="Promedio de ventas" fld="2" subtotal="average" baseField="0" baseItem="0"/>
     <dataField name="% de Ventas" fld="2" showDataAs="percentOfTotal" baseField="2" baseItem="0" numFmtId="10"/>
+    <dataField name="Bono (10%)" fld="5" baseField="0" baseItem="0" numFmtId="44"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="33">
+    <format dxfId="8">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="31">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="3">
@@ -4359,7 +4892,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="27">
+    <format dxfId="6">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -4386,7 +4919,7 @@
     <tableColumn id="2" name="Vendedor"/>
     <tableColumn id="3" name="Importe Venta"/>
     <tableColumn id="4" name="Impuesto"/>
-    <tableColumn id="5" name="Mes Venta" dataDxfId="37"/>
+    <tableColumn id="5" name="Mes Venta" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4770,9 +5303,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -5120,10 +5653,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -8726,14 +9259,14 @@
       <c r="G2" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
     </row>
     <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -8752,12 +9285,12 @@
       <c r="E3" s="16">
         <v>43834</v>
       </c>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -8776,12 +9309,12 @@
       <c r="E4" s="12">
         <v>44077</v>
       </c>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
     </row>
     <row r="5" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -8800,12 +9333,12 @@
       <c r="E5" s="16">
         <v>43860</v>
       </c>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
     </row>
     <row r="6" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
@@ -8842,14 +9375,14 @@
       <c r="E7" s="16">
         <v>44087</v>
       </c>
-      <c r="M7" s="34" t="s">
+      <c r="M7" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="35"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
     </row>
     <row r="8" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
@@ -8868,12 +9401,12 @@
       <c r="E8" s="12">
         <v>44094</v>
       </c>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="35"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
     </row>
     <row r="9" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
@@ -8892,12 +9425,12 @@
       <c r="E9" s="16">
         <v>44076</v>
       </c>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="35"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
     </row>
     <row r="10" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
@@ -8916,12 +9449,12 @@
       <c r="E10" s="12">
         <v>44107</v>
       </c>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="35"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
     </row>
     <row r="11" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
@@ -8958,14 +9491,14 @@
       <c r="E12" s="12">
         <v>44174</v>
       </c>
-      <c r="M12" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
+      <c r="M12" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
     </row>
     <row r="13" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
@@ -8984,12 +9517,12 @@
       <c r="E13" s="16">
         <v>44097</v>
       </c>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35"/>
     </row>
     <row r="14" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
@@ -9008,12 +9541,12 @@
       <c r="E14" s="12">
         <v>44045</v>
       </c>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
     </row>
     <row r="15" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
@@ -9032,12 +9565,12 @@
       <c r="E15" s="16">
         <v>44073</v>
       </c>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
     </row>
     <row r="16" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
@@ -9056,12 +9589,12 @@
       <c r="E16" s="12">
         <v>43884</v>
       </c>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="34"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
     </row>
     <row r="17" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
@@ -9080,12 +9613,12 @@
       <c r="E17" s="16">
         <v>43934</v>
       </c>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
     </row>
     <row r="18" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
@@ -9104,12 +9637,12 @@
       <c r="E18" s="12">
         <v>43920</v>
       </c>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
     </row>
     <row r="19" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
@@ -9128,12 +9661,12 @@
       <c r="E19" s="16">
         <v>44094</v>
       </c>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="34"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
     </row>
     <row r="20" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
@@ -12303,10 +12836,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:M94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="I91" sqref="I91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -12315,615 +12848,912 @@
     <col min="2" max="2" width="14.140625" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" s="32" t="s">
+      <c r="E3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="37">
+      <c r="B4" s="33">
         <v>13100</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="33">
         <v>1310</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="34">
         <v>6.1186361513311534E-2</v>
       </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E4" s="33">
+        <v>1310</v>
+      </c>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="37">
+      <c r="B5" s="33">
         <v>8700</v>
       </c>
-      <c r="C5" s="37">
+      <c r="C5" s="33">
         <v>790.90909090909088</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="34">
         <v>4.0635217188229801E-2</v>
       </c>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E5" s="33">
+        <v>870</v>
+      </c>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="37">
+      <c r="B6" s="33">
         <v>8700</v>
       </c>
-      <c r="C6" s="37">
+      <c r="C6" s="33">
         <v>966.66666666666663</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="34">
         <v>4.0635217188229801E-2</v>
       </c>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E6" s="33">
+        <v>870</v>
+      </c>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="37">
+      <c r="B7" s="33">
         <v>14000</v>
       </c>
-      <c r="C7" s="37">
+      <c r="C7" s="33">
         <v>1400</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="34">
         <v>6.5390004670714624E-2</v>
       </c>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E7" s="33">
+        <v>1400</v>
+      </c>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="37">
+      <c r="B8" s="33">
         <v>4300</v>
       </c>
-      <c r="C8" s="37">
+      <c r="C8" s="33">
         <v>1433.3333333333333</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="34">
         <v>2.0084072863148061E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E8" s="33">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="37">
+      <c r="B9" s="33">
         <v>5900</v>
       </c>
-      <c r="C9" s="37">
+      <c r="C9" s="33">
         <v>983.33333333333337</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="34">
         <v>2.7557216254086876E-2</v>
       </c>
-      <c r="F9" s="29" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E9" s="33">
+        <v>590</v>
+      </c>
+      <c r="G9" s="40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="37">
+      <c r="B10" s="33">
         <v>4000</v>
       </c>
-      <c r="C10" s="37">
+      <c r="C10" s="33">
         <v>666.66666666666663</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="34">
         <v>1.8682858477347034E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E10" s="33">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="37">
+      <c r="B11" s="33">
         <v>4600</v>
       </c>
-      <c r="C11" s="37">
+      <c r="C11" s="33">
         <v>766.66666666666663</v>
       </c>
-      <c r="D11" s="38">
+      <c r="D11" s="34">
         <v>2.1485287248949089E-2</v>
       </c>
-      <c r="F11" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E11" s="33">
+        <v>460</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="37">
+      <c r="B12" s="33">
         <v>4000</v>
       </c>
-      <c r="C12" s="37">
+      <c r="C12" s="33">
         <v>1000</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="34">
         <v>1.8682858477347034E-2</v>
       </c>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E12" s="33">
+        <v>400</v>
+      </c>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="37">
+      <c r="B13" s="33">
         <v>9100</v>
       </c>
-      <c r="C13" s="37">
+      <c r="C13" s="33">
         <v>1137.5</v>
       </c>
-      <c r="D13" s="38">
+      <c r="D13" s="34">
         <v>4.25035030359645E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E13" s="33">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="37">
+      <c r="B14" s="33">
         <v>13300</v>
       </c>
-      <c r="C14" s="37">
+      <c r="C14" s="33">
         <v>1330</v>
       </c>
-      <c r="D14" s="38">
+      <c r="D14" s="34">
         <v>6.212050443717889E-2</v>
       </c>
-      <c r="F14" s="30" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E14" s="33">
+        <v>1330</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="37">
+      <c r="B15" s="33">
         <v>10800</v>
       </c>
-      <c r="C15" s="37">
+      <c r="C15" s="33">
         <v>1200</v>
       </c>
-      <c r="D15" s="38">
+      <c r="D15" s="34">
         <v>5.0443717888836989E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E15" s="33">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="37">
+      <c r="B16" s="33">
         <v>9000</v>
       </c>
-      <c r="C16" s="37">
+      <c r="C16" s="33">
         <v>1000</v>
       </c>
-      <c r="D16" s="38">
+      <c r="D16" s="34">
         <v>4.2036431574030829E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E16" s="33">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="37">
+      <c r="B17" s="33">
         <v>12500</v>
       </c>
-      <c r="C17" s="37">
+      <c r="C17" s="33">
         <v>1250</v>
       </c>
-      <c r="D17" s="38">
+      <c r="D17" s="34">
         <v>5.8383932741709485E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E17" s="33">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="37">
+      <c r="B18" s="33">
         <v>7500</v>
       </c>
-      <c r="C18" s="37">
+      <c r="C18" s="33">
         <v>937.5</v>
       </c>
-      <c r="D18" s="38">
+      <c r="D18" s="34">
         <v>3.503035964502569E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E18" s="33">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="37">
+      <c r="B19" s="33">
         <v>9200</v>
       </c>
-      <c r="C19" s="37">
+      <c r="C19" s="33">
         <v>920</v>
       </c>
-      <c r="D19" s="38">
+      <c r="D19" s="34">
         <v>4.2970574497898179E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E19" s="33">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="37">
+      <c r="B20" s="33">
         <v>12700</v>
       </c>
-      <c r="C20" s="37">
+      <c r="C20" s="33">
         <v>1154.5454545454545</v>
       </c>
-      <c r="D20" s="38">
+      <c r="D20" s="34">
         <v>5.9318075665576835E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E20" s="33">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="37">
+      <c r="B21" s="33">
         <v>12300</v>
       </c>
-      <c r="C21" s="37">
+      <c r="C21" s="33">
         <v>1118.1818181818182</v>
       </c>
-      <c r="D21" s="38">
+      <c r="D21" s="34">
         <v>5.7449789817842128E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E21" s="33">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="37">
+      <c r="B22" s="33">
         <v>1800</v>
       </c>
-      <c r="C22" s="37">
+      <c r="C22" s="33">
         <v>900</v>
       </c>
-      <c r="D22" s="38">
+      <c r="D22" s="34">
         <v>8.4072863148061654E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E22" s="33">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="37">
+      <c r="B23" s="33">
         <v>10700</v>
       </c>
-      <c r="C23" s="37">
+      <c r="C23" s="33">
         <v>972.72727272727275</v>
       </c>
-      <c r="D23" s="38">
+      <c r="D23" s="34">
         <v>4.9976646426903318E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E23" s="33">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="37">
+      <c r="B24" s="33">
         <v>3300</v>
       </c>
-      <c r="C24" s="37">
+      <c r="C24" s="33">
         <v>825</v>
       </c>
-      <c r="D24" s="38">
+      <c r="D24" s="34">
         <v>1.5413358243811303E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E24" s="33">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="37">
+      <c r="B25" s="33">
         <v>16500</v>
       </c>
-      <c r="C25" s="37">
+      <c r="C25" s="33">
         <v>1650</v>
       </c>
-      <c r="D25" s="38">
+      <c r="D25" s="34">
         <v>7.7066791219056519E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E25" s="33">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="37">
+      <c r="B26" s="33">
         <v>4000</v>
       </c>
-      <c r="C26" s="37">
+      <c r="C26" s="33">
         <v>4000</v>
       </c>
-      <c r="D26" s="38">
+      <c r="D26" s="34">
         <v>1.8682858477347034E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E26" s="33">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="37">
+      <c r="B27" s="33">
         <v>1100</v>
       </c>
-      <c r="C27" s="37">
+      <c r="C27" s="33">
         <v>1100</v>
       </c>
-      <c r="D27" s="38">
+      <c r="D27" s="34">
         <v>5.137786081270434E-3</v>
       </c>
-      <c r="F27" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E27" s="33">
+        <v>0</v>
+      </c>
+      <c r="G27" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="37">
+      <c r="B28" s="33">
         <v>400</v>
       </c>
-      <c r="C28" s="37">
+      <c r="C28" s="33">
         <v>400</v>
       </c>
-      <c r="D28" s="38">
+      <c r="D28" s="34">
         <v>1.8682858477347033E-3</v>
       </c>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E28" s="33">
+        <v>0</v>
+      </c>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="37">
+      <c r="B29" s="33">
         <v>8100</v>
       </c>
-      <c r="C29" s="37">
+      <c r="C29" s="33">
         <v>1157.1428571428571</v>
       </c>
-      <c r="D29" s="38">
+      <c r="D29" s="34">
         <v>3.7832788416627745E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E29" s="33">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="37">
+      <c r="B30" s="33">
         <v>4500</v>
       </c>
-      <c r="C30" s="37">
+      <c r="C30" s="33">
         <v>1125</v>
       </c>
-      <c r="D30" s="38">
+      <c r="D30" s="34">
         <v>2.1018215787015414E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E30" s="33">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="37">
+      <c r="B31" s="33">
         <v>214100</v>
       </c>
-      <c r="C31" s="37">
+      <c r="C31" s="33">
         <v>1115.1041666666667</v>
       </c>
-      <c r="D31" s="38">
+      <c r="D31" s="34">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F36" s="32" t="s">
+      <c r="E31" s="33">
+        <v>21410</v>
+      </c>
+    </row>
+    <row r="36" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G36" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+    </row>
+    <row r="37" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
+    </row>
+    <row r="38" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="37"/>
+    </row>
+    <row r="39" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="37"/>
+    </row>
+    <row r="41" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="I41" s="32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="7:12" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G43" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="37"/>
+      <c r="L43" s="37"/>
+    </row>
+    <row r="44" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G44" s="37"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="37"/>
+      <c r="L44" s="37"/>
+    </row>
+    <row r="45" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G45" s="37"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="37"/>
+      <c r="L45" s="37"/>
+    </row>
+    <row r="46" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G46" s="37"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="37"/>
+      <c r="L46" s="37"/>
+    </row>
+    <row r="47" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="37"/>
+      <c r="K47" s="37"/>
+      <c r="L47" s="37"/>
+    </row>
+    <row r="48" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="37"/>
+      <c r="K48" s="37"/>
+      <c r="L48" s="37"/>
+    </row>
+    <row r="49" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G49" s="37"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="37"/>
+      <c r="K49" s="37"/>
+      <c r="L49" s="37"/>
+    </row>
+    <row r="50" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G50" s="37"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="37"/>
+      <c r="J50" s="37"/>
+      <c r="K50" s="37"/>
+      <c r="L50" s="37"/>
+    </row>
+    <row r="51" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G51" s="37"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="37"/>
+      <c r="J51" s="37"/>
+      <c r="K51" s="37"/>
+      <c r="L51" s="37"/>
+    </row>
+    <row r="53" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G53" t="s">
         <v>63</v>
       </c>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="32"/>
-    </row>
-    <row r="37" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="32"/>
-      <c r="K37" s="32"/>
-    </row>
-    <row r="38" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="32"/>
-    </row>
-    <row r="39" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="32"/>
-    </row>
-    <row r="41" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="H41" s="36" t="s">
+    </row>
+    <row r="54" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G54" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="6:11" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F43" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="G43" s="32"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="32"/>
-      <c r="J43" s="32"/>
-      <c r="K43" s="32"/>
-    </row>
-    <row r="44" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="32"/>
-      <c r="I44" s="32"/>
-      <c r="J44" s="32"/>
-      <c r="K44" s="32"/>
-    </row>
-    <row r="45" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="32"/>
-      <c r="J45" s="32"/>
-      <c r="K45" s="32"/>
-    </row>
-    <row r="46" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F46" s="32"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="32"/>
-      <c r="I46" s="32"/>
-      <c r="J46" s="32"/>
-      <c r="K46" s="32"/>
-    </row>
-    <row r="47" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F47" s="32"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="32"/>
-      <c r="I47" s="32"/>
-      <c r="J47" s="32"/>
-      <c r="K47" s="32"/>
-    </row>
-    <row r="48" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F48" s="32"/>
-      <c r="G48" s="32"/>
-      <c r="H48" s="32"/>
-      <c r="I48" s="32"/>
-      <c r="J48" s="32"/>
-      <c r="K48" s="32"/>
-    </row>
-    <row r="49" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F49" s="32"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="32"/>
-      <c r="I49" s="32"/>
-      <c r="J49" s="32"/>
-      <c r="K49" s="32"/>
-    </row>
-    <row r="50" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F50" s="32"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="32"/>
-      <c r="I50" s="32"/>
-      <c r="J50" s="32"/>
-      <c r="K50" s="32"/>
-    </row>
-    <row r="52" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F52" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F53" t="s">
-        <v>68</v>
-      </c>
+    <row r="56" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G56" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="H56" s="35"/>
+      <c r="I56" s="35"/>
+      <c r="J56" s="35"/>
+      <c r="K56" s="35"/>
+      <c r="L56" s="35"/>
+    </row>
+    <row r="57" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G57" s="35"/>
+      <c r="H57" s="35"/>
+      <c r="I57" s="35"/>
+      <c r="J57" s="35"/>
+      <c r="K57" s="35"/>
+      <c r="L57" s="35"/>
+    </row>
+    <row r="58" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G58" s="35"/>
+      <c r="H58" s="35"/>
+      <c r="I58" s="35"/>
+      <c r="J58" s="35"/>
+      <c r="K58" s="35"/>
+      <c r="L58" s="35"/>
+    </row>
+    <row r="59" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G59" s="35"/>
+      <c r="H59" s="35"/>
+      <c r="I59" s="35"/>
+      <c r="J59" s="35"/>
+      <c r="K59" s="35"/>
+      <c r="L59" s="35"/>
+    </row>
+    <row r="60" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G60" s="35"/>
+      <c r="H60" s="35"/>
+      <c r="I60" s="35"/>
+      <c r="J60" s="35"/>
+      <c r="K60" s="35"/>
+      <c r="L60" s="35"/>
+    </row>
+    <row r="61" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G61" s="35"/>
+      <c r="H61" s="35"/>
+      <c r="I61" s="35"/>
+      <c r="J61" s="35"/>
+      <c r="K61" s="35"/>
+      <c r="L61" s="35"/>
+    </row>
+    <row r="71" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G71" s="29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="7:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J73" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="K73" s="37"/>
+      <c r="L73" s="37"/>
+      <c r="M73" s="37"/>
+    </row>
+    <row r="74" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="J74" s="37"/>
+      <c r="K74" s="37"/>
+      <c r="L74" s="37"/>
+      <c r="M74" s="37"/>
+    </row>
+    <row r="75" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="J75" s="37"/>
+      <c r="K75" s="37"/>
+      <c r="L75" s="37"/>
+      <c r="M75" s="37"/>
+    </row>
+    <row r="76" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="J76" s="37"/>
+      <c r="K76" s="37"/>
+      <c r="L76" s="37"/>
+      <c r="M76" s="37"/>
+    </row>
+    <row r="77" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="J77" s="37"/>
+      <c r="K77" s="37"/>
+      <c r="L77" s="37"/>
+      <c r="M77" s="37"/>
+    </row>
+    <row r="78" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="J78" s="37"/>
+      <c r="K78" s="37"/>
+      <c r="L78" s="37"/>
+      <c r="M78" s="37"/>
+    </row>
+    <row r="79" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="J79" s="37"/>
+      <c r="K79" s="37"/>
+      <c r="L79" s="37"/>
+      <c r="M79" s="37"/>
+    </row>
+    <row r="80" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="J80" s="39"/>
+      <c r="K80" s="39"/>
+      <c r="L80" s="39"/>
+      <c r="M80" s="39"/>
+    </row>
+    <row r="81" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G81" s="29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="82" spans="7:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J82" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="K82" s="37"/>
+      <c r="L82" s="37"/>
+      <c r="M82" s="37"/>
+    </row>
+    <row r="83" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="J83" s="37"/>
+      <c r="K83" s="37"/>
+      <c r="L83" s="37"/>
+      <c r="M83" s="37"/>
+    </row>
+    <row r="84" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="J84" s="37"/>
+      <c r="K84" s="37"/>
+      <c r="L84" s="37"/>
+      <c r="M84" s="37"/>
+    </row>
+    <row r="85" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="J85" s="37"/>
+      <c r="K85" s="37"/>
+      <c r="L85" s="37"/>
+      <c r="M85" s="37"/>
+    </row>
+    <row r="86" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="J86" s="37"/>
+      <c r="K86" s="37"/>
+      <c r="L86" s="37"/>
+      <c r="M86" s="37"/>
+    </row>
+    <row r="87" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="J87" s="37"/>
+      <c r="K87" s="37"/>
+      <c r="L87" s="37"/>
+      <c r="M87" s="37"/>
+    </row>
+    <row r="88" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="J88" s="37"/>
+      <c r="K88" s="37"/>
+      <c r="L88" s="37"/>
+      <c r="M88" s="37"/>
+    </row>
+    <row r="89" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="J89" s="37"/>
+      <c r="K89" s="37"/>
+      <c r="L89" s="37"/>
+      <c r="M89" s="37"/>
+    </row>
+    <row r="90" spans="7:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G90" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="H90" s="42"/>
+      <c r="J90" s="37"/>
+      <c r="K90" s="37"/>
+      <c r="L90" s="37"/>
+      <c r="M90" s="37"/>
+    </row>
+    <row r="91" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G91" s="42"/>
+      <c r="H91" s="42"/>
+      <c r="J91" s="37"/>
+      <c r="K91" s="37"/>
+      <c r="L91" s="37"/>
+      <c r="M91" s="37"/>
+    </row>
+    <row r="92" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G92" s="39"/>
+      <c r="H92" s="39"/>
+    </row>
+    <row r="93" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="J93" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="K93" s="41"/>
+      <c r="L93" s="41"/>
+      <c r="M93" s="41"/>
+    </row>
+    <row r="94" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="J94" s="41"/>
+      <c r="K94" s="41"/>
+      <c r="L94" s="41"/>
+      <c r="M94" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="F3:K7"/>
-    <mergeCell ref="F11:K12"/>
-    <mergeCell ref="F27:K28"/>
-    <mergeCell ref="F36:K39"/>
-    <mergeCell ref="F43:K50"/>
+  <mergeCells count="10">
+    <mergeCell ref="J93:M94"/>
+    <mergeCell ref="G90:H91"/>
+    <mergeCell ref="G56:L61"/>
+    <mergeCell ref="J73:M79"/>
+    <mergeCell ref="J82:M91"/>
+    <mergeCell ref="G3:L7"/>
+    <mergeCell ref="G11:L12"/>
+    <mergeCell ref="G27:L28"/>
+    <mergeCell ref="G36:L39"/>
+    <mergeCell ref="G43:L51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>

--- a/Excel/Práctica/13. Tablas Dinámicas en Excel/Introducción a tablas dinámicas.xlsx
+++ b/Excel/Práctica/13. Tablas Dinámicas en Excel/Introducción a tablas dinámicas.xlsx
@@ -1497,25 +1497,7 @@
     <cellStyle name="Normal 2" xfId="4"/>
     <cellStyle name="Normal 3" xfId="5"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
@@ -3755,7 +3737,7 @@
     <dataField name="Suma de Bono" fld="5" baseField="0" baseItem="0" numFmtId="44"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="9">
+    <format dxfId="3">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -4878,10 +4860,10 @@
     <dataField name="Bono (10%)" fld="5" baseField="0" baseItem="0" numFmtId="44"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="8">
+    <format dxfId="2">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="3">
@@ -4892,7 +4874,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="0">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -4919,7 +4901,7 @@
     <tableColumn id="2" name="Vendedor"/>
     <tableColumn id="3" name="Importe Venta"/>
     <tableColumn id="4" name="Impuesto"/>
-    <tableColumn id="5" name="Mes Venta" dataDxfId="10"/>
+    <tableColumn id="5" name="Mes Venta" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12838,8 +12820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="I91" sqref="I91"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>

--- a/Excel/Práctica/13. Tablas Dinámicas en Excel/Introducción a tablas dinámicas.xlsx
+++ b/Excel/Práctica/13. Tablas Dinámicas en Excel/Introducción a tablas dinámicas.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" activeTab="4"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="28800" windowHeight="16540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja5" sheetId="9" r:id="rId1"/>
@@ -25,7 +25,7 @@
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="82">
   <si>
     <t>Etiquetas de fila</t>
   </si>
@@ -1123,6 +1123,106 @@
   <si>
     <t>Bono (10%)</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Al igual, usted también puede insertar</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> gráficos dinámicos a sus tablas dinámicas. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Primeramente hacemos click sobre la tabla dinámica en cuestión y nos vamos a la pestaña </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Insertar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, luego click en el gráfico de su interés o en la opción de </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Gráficos recomendados</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Ahora, se habla de </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Gráficos dinámicos </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>porque es sensible a cualquier cambio que sufra la tabla dinámica en cuestión; es decir, se actualiza el gráfico, en tiempo real, a cualquier cambio que sufra la tabla dinámica.</t>
+    </r>
+  </si>
+  <si>
+    <t>Para ver al detalle la información de cada registro sólo haga doble click sobre el registro de su interés y podrá visualizar toda la información relacionada a ese sólo registro, bajo las condiciones establecidas en la propia tabla dinámica, en una nueva tabla reflejada en una nueva hoja de cálculo. Haga el intento para entender mejor con un ejemplo.</t>
+  </si>
 </sst>
 </file>
 
@@ -1416,7 +1516,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -1466,11 +1566,21 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1478,15 +1588,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1497,7 +1600,16 @@
     <cellStyle name="Normal 2" xfId="4"/>
     <cellStyle name="Normal 3" xfId="5"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="8">
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
@@ -2175,7 +2287,7 @@
         </groupItems>
       </fieldGroup>
     </cacheField>
-    <cacheField name="Bono" numFmtId="0" formula="IF('Importe Venta' &gt;1500,'Importe Venta'*10%,0)" databaseField="0"/>
+    <cacheField name="Bono" numFmtId="0" formula="IF('Importe Venta'&gt;1500,'Importe Venta'*10%,0)" databaseField="0"/>
     <cacheField name="Trimestres" numFmtId="0" databaseField="0">
       <fieldGroup base="4">
         <rangePr groupBy="quarters" startDate="2020-01-03T00:00:00" endDate="2020-12-30T00:00:00"/>
@@ -3548,7 +3660,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica4" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C32" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
@@ -3737,7 +3849,7 @@
     <dataField name="Suma de Bono" fld="5" baseField="0" baseItem="0" numFmtId="44"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="3">
+    <format dxfId="6">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -3754,7 +3866,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D255" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
@@ -4628,7 +4740,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica4" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E31" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField axis="axisPage" showAll="0">
@@ -4860,10 +4972,10 @@
     <dataField name="Bono (10%)" fld="5" baseField="0" baseItem="0" numFmtId="44"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="2">
+    <format dxfId="5">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="3">
@@ -4874,7 +4986,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="3">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -4901,7 +5013,7 @@
     <tableColumn id="2" name="Vendedor"/>
     <tableColumn id="3" name="Importe Venta"/>
     <tableColumn id="4" name="Impuesto"/>
-    <tableColumn id="5" name="Mes Venta" dataDxfId="4"/>
+    <tableColumn id="5" name="Mes Venta" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9192,8 +9304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection sqref="A1:E193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -9241,14 +9353,14 @@
       <c r="G2" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="M2" s="35" t="s">
+      <c r="M2" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
     </row>
     <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -9267,12 +9379,12 @@
       <c r="E3" s="16">
         <v>43834</v>
       </c>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -9291,12 +9403,12 @@
       <c r="E4" s="12">
         <v>44077</v>
       </c>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
     </row>
     <row r="5" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -9315,12 +9427,12 @@
       <c r="E5" s="16">
         <v>43860</v>
       </c>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="35"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
     </row>
     <row r="6" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
@@ -9357,14 +9469,14 @@
       <c r="E7" s="16">
         <v>44087</v>
       </c>
-      <c r="M7" s="35" t="s">
+      <c r="M7" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
     </row>
     <row r="8" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
@@ -9383,12 +9495,12 @@
       <c r="E8" s="12">
         <v>44094</v>
       </c>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
     </row>
     <row r="9" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
@@ -9407,12 +9519,12 @@
       <c r="E9" s="16">
         <v>44076</v>
       </c>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
     </row>
     <row r="10" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
@@ -9431,12 +9543,12 @@
       <c r="E10" s="12">
         <v>44107</v>
       </c>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
     </row>
     <row r="11" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
@@ -9473,14 +9585,14 @@
       <c r="E12" s="12">
         <v>44174</v>
       </c>
-      <c r="M12" s="35" t="s">
+      <c r="M12" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="35"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="37"/>
     </row>
     <row r="13" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
@@ -9499,12 +9611,12 @@
       <c r="E13" s="16">
         <v>44097</v>
       </c>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="35"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="37"/>
     </row>
     <row r="14" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
@@ -9523,12 +9635,12 @@
       <c r="E14" s="12">
         <v>44045</v>
       </c>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="37"/>
     </row>
     <row r="15" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
@@ -9547,12 +9659,12 @@
       <c r="E15" s="16">
         <v>44073</v>
       </c>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="35"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="37"/>
     </row>
     <row r="16" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
@@ -9571,12 +9683,12 @@
       <c r="E16" s="12">
         <v>43884</v>
       </c>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="35"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="37"/>
     </row>
     <row r="17" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
@@ -9595,12 +9707,12 @@
       <c r="E17" s="16">
         <v>43934</v>
       </c>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="35"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="37"/>
     </row>
     <row r="18" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
@@ -9619,12 +9731,12 @@
       <c r="E18" s="12">
         <v>43920</v>
       </c>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="35"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
     </row>
     <row r="19" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
@@ -9643,12 +9755,12 @@
       <c r="E19" s="16">
         <v>44094</v>
       </c>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="35"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="37"/>
     </row>
     <row r="20" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
@@ -12818,10 +12930,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M94"/>
+  <dimension ref="A1:M99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -12862,14 +12974,14 @@
       <c r="E3" t="s">
         <v>79</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -12887,12 +12999,12 @@
       <c r="E4" s="33">
         <v>1310</v>
       </c>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -12910,12 +13022,12 @@
       <c r="E5" s="33">
         <v>870</v>
       </c>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -12933,12 +13045,12 @@
       <c r="E6" s="33">
         <v>870</v>
       </c>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -12956,12 +13068,12 @@
       <c r="E7" s="33">
         <v>1400</v>
       </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -12996,7 +13108,7 @@
       <c r="E9" s="33">
         <v>590</v>
       </c>
-      <c r="G9" s="40" t="s">
+      <c r="G9" s="36" t="s">
         <v>68</v>
       </c>
     </row>
@@ -13033,14 +13145,14 @@
       <c r="E11" s="33">
         <v>460</v>
       </c>
-      <c r="G11" s="38" t="s">
+      <c r="G11" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -13058,12 +13170,12 @@
       <c r="E12" s="33">
         <v>400</v>
       </c>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -13322,14 +13434,14 @@
       <c r="E27" s="33">
         <v>0</v>
       </c>
-      <c r="G27" s="38" t="s">
+      <c r="G27" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
@@ -13347,12 +13459,12 @@
       <c r="E28" s="33">
         <v>0</v>
       </c>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
@@ -13405,118 +13517,146 @@
         <v>21410</v>
       </c>
     </row>
-    <row r="36" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G36" s="37" t="s">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="39"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="39"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="39"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="G36" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="H36" s="37"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="37"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="37"/>
-    </row>
-    <row r="37" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G37" s="37"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="37"/>
-      <c r="K37" s="37"/>
-      <c r="L37" s="37"/>
-    </row>
-    <row r="38" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="37"/>
-      <c r="K38" s="37"/>
-      <c r="L38" s="37"/>
-    </row>
-    <row r="39" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="37"/>
-      <c r="K39" s="37"/>
-      <c r="L39" s="37"/>
-    </row>
-    <row r="41" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="H36" s="41"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="41"/>
+      <c r="K36" s="41"/>
+      <c r="L36" s="41"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I41" s="32" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="7:12" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G43" s="37" t="s">
+    <row r="43" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G43" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="H43" s="37"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="37"/>
-      <c r="K43" s="37"/>
-      <c r="L43" s="37"/>
-    </row>
-    <row r="44" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G44" s="37"/>
-      <c r="H44" s="37"/>
-      <c r="I44" s="37"/>
-      <c r="J44" s="37"/>
-      <c r="K44" s="37"/>
-      <c r="L44" s="37"/>
-    </row>
-    <row r="45" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G45" s="37"/>
-      <c r="H45" s="37"/>
-      <c r="I45" s="37"/>
-      <c r="J45" s="37"/>
-      <c r="K45" s="37"/>
-      <c r="L45" s="37"/>
-    </row>
-    <row r="46" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G46" s="37"/>
-      <c r="H46" s="37"/>
-      <c r="I46" s="37"/>
-      <c r="J46" s="37"/>
-      <c r="K46" s="37"/>
-      <c r="L46" s="37"/>
-    </row>
-    <row r="47" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G47" s="37"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="37"/>
-      <c r="J47" s="37"/>
-      <c r="K47" s="37"/>
-      <c r="L47" s="37"/>
-    </row>
-    <row r="48" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="37"/>
-      <c r="K48" s="37"/>
-      <c r="L48" s="37"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="41"/>
+      <c r="K43" s="41"/>
+      <c r="L43" s="41"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G44" s="41"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="41"/>
+      <c r="K44" s="41"/>
+      <c r="L44" s="41"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G45" s="41"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="41"/>
+      <c r="J45" s="41"/>
+      <c r="K45" s="41"/>
+      <c r="L45" s="41"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G46" s="41"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="41"/>
+      <c r="K46" s="41"/>
+      <c r="L46" s="41"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G47" s="41"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="41"/>
+      <c r="J47" s="41"/>
+      <c r="K47" s="41"/>
+      <c r="L47" s="41"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G48" s="41"/>
+      <c r="H48" s="41"/>
+      <c r="I48" s="41"/>
+      <c r="J48" s="41"/>
+      <c r="K48" s="41"/>
+      <c r="L48" s="41"/>
     </row>
     <row r="49" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="37"/>
-      <c r="K49" s="37"/>
-      <c r="L49" s="37"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="41"/>
+      <c r="I49" s="41"/>
+      <c r="J49" s="41"/>
+      <c r="K49" s="41"/>
+      <c r="L49" s="41"/>
     </row>
     <row r="50" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G50" s="37"/>
-      <c r="H50" s="37"/>
-      <c r="I50" s="37"/>
-      <c r="J50" s="37"/>
-      <c r="K50" s="37"/>
-      <c r="L50" s="37"/>
+      <c r="G50" s="41"/>
+      <c r="H50" s="41"/>
+      <c r="I50" s="41"/>
+      <c r="J50" s="41"/>
+      <c r="K50" s="41"/>
+      <c r="L50" s="41"/>
     </row>
     <row r="51" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G51" s="37"/>
-      <c r="H51" s="37"/>
-      <c r="I51" s="37"/>
-      <c r="J51" s="37"/>
-      <c r="K51" s="37"/>
-      <c r="L51" s="37"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="41"/>
+      <c r="I51" s="41"/>
+      <c r="J51" s="41"/>
+      <c r="K51" s="41"/>
+      <c r="L51" s="41"/>
     </row>
     <row r="53" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G53" t="s">
@@ -13529,54 +13669,54 @@
       </c>
     </row>
     <row r="56" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G56" s="35" t="s">
+      <c r="G56" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="H56" s="35"/>
-      <c r="I56" s="35"/>
-      <c r="J56" s="35"/>
-      <c r="K56" s="35"/>
-      <c r="L56" s="35"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="37"/>
+      <c r="K56" s="37"/>
+      <c r="L56" s="37"/>
     </row>
     <row r="57" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G57" s="35"/>
-      <c r="H57" s="35"/>
-      <c r="I57" s="35"/>
-      <c r="J57" s="35"/>
-      <c r="K57" s="35"/>
-      <c r="L57" s="35"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="37"/>
+      <c r="K57" s="37"/>
+      <c r="L57" s="37"/>
     </row>
     <row r="58" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G58" s="35"/>
-      <c r="H58" s="35"/>
-      <c r="I58" s="35"/>
-      <c r="J58" s="35"/>
-      <c r="K58" s="35"/>
-      <c r="L58" s="35"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="37"/>
+      <c r="K58" s="37"/>
+      <c r="L58" s="37"/>
     </row>
     <row r="59" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G59" s="35"/>
-      <c r="H59" s="35"/>
-      <c r="I59" s="35"/>
-      <c r="J59" s="35"/>
-      <c r="K59" s="35"/>
-      <c r="L59" s="35"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="37"/>
+      <c r="I59" s="37"/>
+      <c r="J59" s="37"/>
+      <c r="K59" s="37"/>
+      <c r="L59" s="37"/>
     </row>
     <row r="60" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G60" s="35"/>
-      <c r="H60" s="35"/>
-      <c r="I60" s="35"/>
-      <c r="J60" s="35"/>
-      <c r="K60" s="35"/>
-      <c r="L60" s="35"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="37"/>
+      <c r="J60" s="37"/>
+      <c r="K60" s="37"/>
+      <c r="L60" s="37"/>
     </row>
     <row r="61" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G61" s="35"/>
-      <c r="H61" s="35"/>
-      <c r="I61" s="35"/>
-      <c r="J61" s="35"/>
-      <c r="K61" s="35"/>
-      <c r="L61" s="35"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="37"/>
+      <c r="I61" s="37"/>
+      <c r="J61" s="37"/>
+      <c r="K61" s="37"/>
+      <c r="L61" s="37"/>
     </row>
     <row r="71" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G71" s="29" t="s">
@@ -13584,54 +13724,54 @@
       </c>
     </row>
     <row r="73" spans="7:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J73" s="37" t="s">
+      <c r="J73" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="K73" s="37"/>
-      <c r="L73" s="37"/>
-      <c r="M73" s="37"/>
+      <c r="K73" s="41"/>
+      <c r="L73" s="41"/>
+      <c r="M73" s="41"/>
     </row>
     <row r="74" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="J74" s="37"/>
-      <c r="K74" s="37"/>
-      <c r="L74" s="37"/>
-      <c r="M74" s="37"/>
+      <c r="J74" s="41"/>
+      <c r="K74" s="41"/>
+      <c r="L74" s="41"/>
+      <c r="M74" s="41"/>
     </row>
     <row r="75" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="J75" s="37"/>
-      <c r="K75" s="37"/>
-      <c r="L75" s="37"/>
-      <c r="M75" s="37"/>
+      <c r="J75" s="41"/>
+      <c r="K75" s="41"/>
+      <c r="L75" s="41"/>
+      <c r="M75" s="41"/>
     </row>
     <row r="76" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="J76" s="37"/>
-      <c r="K76" s="37"/>
-      <c r="L76" s="37"/>
-      <c r="M76" s="37"/>
+      <c r="J76" s="41"/>
+      <c r="K76" s="41"/>
+      <c r="L76" s="41"/>
+      <c r="M76" s="41"/>
     </row>
     <row r="77" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="J77" s="37"/>
-      <c r="K77" s="37"/>
-      <c r="L77" s="37"/>
-      <c r="M77" s="37"/>
+      <c r="J77" s="41"/>
+      <c r="K77" s="41"/>
+      <c r="L77" s="41"/>
+      <c r="M77" s="41"/>
     </row>
     <row r="78" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="J78" s="37"/>
-      <c r="K78" s="37"/>
-      <c r="L78" s="37"/>
-      <c r="M78" s="37"/>
+      <c r="J78" s="41"/>
+      <c r="K78" s="41"/>
+      <c r="L78" s="41"/>
+      <c r="M78" s="41"/>
     </row>
     <row r="79" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="J79" s="37"/>
-      <c r="K79" s="37"/>
-      <c r="L79" s="37"/>
-      <c r="M79" s="37"/>
+      <c r="J79" s="41"/>
+      <c r="K79" s="41"/>
+      <c r="L79" s="41"/>
+      <c r="M79" s="41"/>
     </row>
     <row r="80" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="J80" s="39"/>
-      <c r="K80" s="39"/>
-      <c r="L80" s="39"/>
-      <c r="M80" s="39"/>
+      <c r="J80" s="35"/>
+      <c r="K80" s="35"/>
+      <c r="L80" s="35"/>
+      <c r="M80" s="35"/>
     </row>
     <row r="81" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G81" s="29" t="s">
@@ -13639,103 +13779,139 @@
       </c>
     </row>
     <row r="82" spans="7:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J82" s="37" t="s">
+      <c r="J82" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="K82" s="37"/>
-      <c r="L82" s="37"/>
-      <c r="M82" s="37"/>
+      <c r="K82" s="41"/>
+      <c r="L82" s="41"/>
+      <c r="M82" s="41"/>
     </row>
     <row r="83" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="J83" s="37"/>
-      <c r="K83" s="37"/>
-      <c r="L83" s="37"/>
-      <c r="M83" s="37"/>
+      <c r="J83" s="41"/>
+      <c r="K83" s="41"/>
+      <c r="L83" s="41"/>
+      <c r="M83" s="41"/>
     </row>
     <row r="84" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="J84" s="37"/>
-      <c r="K84" s="37"/>
-      <c r="L84" s="37"/>
-      <c r="M84" s="37"/>
+      <c r="J84" s="41"/>
+      <c r="K84" s="41"/>
+      <c r="L84" s="41"/>
+      <c r="M84" s="41"/>
     </row>
     <row r="85" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="J85" s="37"/>
-      <c r="K85" s="37"/>
-      <c r="L85" s="37"/>
-      <c r="M85" s="37"/>
+      <c r="J85" s="41"/>
+      <c r="K85" s="41"/>
+      <c r="L85" s="41"/>
+      <c r="M85" s="41"/>
     </row>
     <row r="86" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="J86" s="37"/>
-      <c r="K86" s="37"/>
-      <c r="L86" s="37"/>
-      <c r="M86" s="37"/>
+      <c r="J86" s="41"/>
+      <c r="K86" s="41"/>
+      <c r="L86" s="41"/>
+      <c r="M86" s="41"/>
     </row>
     <row r="87" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="J87" s="37"/>
-      <c r="K87" s="37"/>
-      <c r="L87" s="37"/>
-      <c r="M87" s="37"/>
+      <c r="J87" s="41"/>
+      <c r="K87" s="41"/>
+      <c r="L87" s="41"/>
+      <c r="M87" s="41"/>
     </row>
     <row r="88" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="J88" s="37"/>
-      <c r="K88" s="37"/>
-      <c r="L88" s="37"/>
-      <c r="M88" s="37"/>
+      <c r="J88" s="41"/>
+      <c r="K88" s="41"/>
+      <c r="L88" s="41"/>
+      <c r="M88" s="41"/>
     </row>
     <row r="89" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="J89" s="37"/>
-      <c r="K89" s="37"/>
-      <c r="L89" s="37"/>
-      <c r="M89" s="37"/>
+      <c r="J89" s="41"/>
+      <c r="K89" s="41"/>
+      <c r="L89" s="41"/>
+      <c r="M89" s="41"/>
     </row>
     <row r="90" spans="7:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G90" s="42" t="s">
+      <c r="G90" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="H90" s="42"/>
-      <c r="J90" s="37"/>
-      <c r="K90" s="37"/>
-      <c r="L90" s="37"/>
-      <c r="M90" s="37"/>
+      <c r="H90" s="40"/>
+      <c r="J90" s="41"/>
+      <c r="K90" s="41"/>
+      <c r="L90" s="41"/>
+      <c r="M90" s="41"/>
     </row>
     <row r="91" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G91" s="42"/>
-      <c r="H91" s="42"/>
-      <c r="J91" s="37"/>
-      <c r="K91" s="37"/>
-      <c r="L91" s="37"/>
-      <c r="M91" s="37"/>
+      <c r="G91" s="40"/>
+      <c r="H91" s="40"/>
+      <c r="J91" s="41"/>
+      <c r="K91" s="41"/>
+      <c r="L91" s="41"/>
+      <c r="M91" s="41"/>
     </row>
     <row r="92" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G92" s="39"/>
-      <c r="H92" s="39"/>
+      <c r="G92" s="35"/>
+      <c r="H92" s="35"/>
     </row>
     <row r="93" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="J93" s="41" t="s">
+      <c r="J93" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="K93" s="41"/>
-      <c r="L93" s="41"/>
-      <c r="M93" s="41"/>
+      <c r="K93" s="39"/>
+      <c r="L93" s="39"/>
+      <c r="M93" s="39"/>
     </row>
     <row r="94" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="J94" s="41"/>
-      <c r="K94" s="41"/>
-      <c r="L94" s="41"/>
-      <c r="M94" s="41"/>
+      <c r="J94" s="39"/>
+      <c r="K94" s="39"/>
+      <c r="L94" s="39"/>
+      <c r="M94" s="39"/>
+    </row>
+    <row r="96" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G96" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="H96" s="43"/>
+      <c r="I96" s="43"/>
+      <c r="J96" s="43"/>
+      <c r="K96" s="43"/>
+      <c r="L96" s="43"/>
+    </row>
+    <row r="97" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G97" s="43"/>
+      <c r="H97" s="43"/>
+      <c r="I97" s="43"/>
+      <c r="J97" s="43"/>
+      <c r="K97" s="43"/>
+      <c r="L97" s="43"/>
+    </row>
+    <row r="98" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G98" s="43"/>
+      <c r="H98" s="43"/>
+      <c r="I98" s="43"/>
+      <c r="J98" s="43"/>
+      <c r="K98" s="43"/>
+      <c r="L98" s="43"/>
+    </row>
+    <row r="99" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G99" s="43"/>
+      <c r="H99" s="43"/>
+      <c r="I99" s="43"/>
+      <c r="J99" s="43"/>
+      <c r="K99" s="43"/>
+      <c r="L99" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
+    <mergeCell ref="G96:L99"/>
+    <mergeCell ref="A33:E36"/>
+    <mergeCell ref="G3:L7"/>
+    <mergeCell ref="G11:L12"/>
+    <mergeCell ref="G27:L28"/>
+    <mergeCell ref="G36:L39"/>
+    <mergeCell ref="G43:L51"/>
     <mergeCell ref="J93:M94"/>
     <mergeCell ref="G90:H91"/>
     <mergeCell ref="G56:L61"/>
     <mergeCell ref="J73:M79"/>
     <mergeCell ref="J82:M91"/>
-    <mergeCell ref="G3:L7"/>
-    <mergeCell ref="G11:L12"/>
-    <mergeCell ref="G27:L28"/>
-    <mergeCell ref="G36:L39"/>
-    <mergeCell ref="G43:L51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>

--- a/Excel/Práctica/13. Tablas Dinámicas en Excel/Introducción a tablas dinámicas.xlsx
+++ b/Excel/Práctica/13. Tablas Dinámicas en Excel/Introducción a tablas dinámicas.xlsx
@@ -1221,7 +1221,7 @@
     </r>
   </si>
   <si>
-    <t>Para ver al detalle la información de cada registro sólo haga doble click sobre el registro de su interés y podrá visualizar toda la información relacionada a ese sólo registro, bajo las condiciones establecidas en la propia tabla dinámica, en una nueva tabla reflejada en una nueva hoja de cálculo. Haga el intento para entender mejor con un ejemplo.</t>
+    <t>Para ver al detalle la información de cada registro sólo haga doble click sobre el registro de su interés y podrá visualizar toda la información relacionada a ese sólo registro, bajo las condiciones establecidas en la propia tabla dinámica, en una nueva tabla reflejada dentro de una nueva hoja de cálculo. Haga el intento para entender mejor con un ejemplo.</t>
   </si>
 </sst>
 </file>
@@ -12932,8 +12932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="G105" sqref="G105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
